--- a/Список фич.xlsx
+++ b/Список фич.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Програмная инженерия\fiit-19-Silicon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Програмная инженерия\fiit-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Список фич</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>Алексей</t>
+  </si>
+  <si>
+    <t>Классы:</t>
+  </si>
+  <si>
+    <t>Картина</t>
+  </si>
+  <si>
+    <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Выставка</t>
+  </si>
+  <si>
+    <t>Жанр</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>Журнал</t>
   </si>
 </sst>
 </file>
@@ -457,19 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,63 +502,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -541,19 +590,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -561,13 +610,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
